--- a/tests/Spreadsheet/test.xlsx
+++ b/tests/Spreadsheet/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">Column A </t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t xml:space="preserve">Line 2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 4B</t>
   </si>
 </sst>
 </file>
@@ -59,6 +71,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -80,9 +93,10 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +107,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A65D"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,6 +166,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,7 +210,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -203,7 +237,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -220,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,6 +296,40 @@
         <v>32807</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>32807</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>32807</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/tests/Spreadsheet/test.xlsx
+++ b/tests/Spreadsheet/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,8 +256,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/Spreadsheet/test.xlsx
+++ b/tests/Spreadsheet/test.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1495,10 +1495,10 @@
       </c>
     </row>
     <row r="2" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -1512,10 +1512,10 @@
       </c>
     </row>
     <row r="3" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">

--- a/tests/Spreadsheet/test.xlsx
+++ b/tests/Spreadsheet/test.xlsx
@@ -80,7 +80,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +111,12 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -118,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,6 +146,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1495,10 +1505,10 @@
       </c>
     </row>
     <row r="2" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -1512,10 +1522,10 @@
       </c>
     </row>
     <row r="3" spans="1:1025" customHeight="1" ht="12.8">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
